--- a/biology/Médecine/Liste_des_hôpitaux_en_Finlande/Liste_des_hôpitaux_en_Finlande.xlsx
+++ b/biology/Médecine/Liste_des_hôpitaux_en_Finlande/Liste_des_hôpitaux_en_Finlande.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_h%C3%B4pitaux_en_Finlande</t>
+          <t>Liste_des_hôpitaux_en_Finlande</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article liste des hôpitaux en Finlande.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_h%C3%B4pitaux_en_Finlande</t>
+          <t>Liste_des_hôpitaux_en_Finlande</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Hôpitaux universitaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Centre hospitalier universitaire d'Helsinki
 Centre hospitalier universitaire de Turku
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Liste_des_h%C3%B4pitaux_en_Finlande</t>
+          <t>Liste_des_hôpitaux_en_Finlande</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,9 +559,11 @@
           <t>Hôpitaux centraux</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les hôpitaux centraux sont[1]:
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les hôpitaux centraux sont:
 Hôpital central de la vallée de la Kymi, Kotka
 Hôpital central de Carélie du Sud, Lappeenranta
 Hôpital central de Päijät-Häme, Lahti
@@ -574,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_h%C3%B4pitaux_en_Finlande</t>
+          <t>Liste_des_hôpitaux_en_Finlande</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,42 +608,44 @@
           <t>Hôpitaux régionaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 District hospitalier de Carélie du Sud
-Hôpital de Honkaharju, Imatra[2]
+Hôpital de Honkaharju, Imatra
 District hospitalier d'Ostrobotnie du Sud
 Hôpital municipal de Seinäjoki, Seinäjoki
 Essote, Savonie du Sud
 Hôpital de Moisio (fi), Mikkeli
 Hôpital de Pieksämäki, Pieksämäki
 District hospitalier d'Helsinki et de l'Uusimaa
-Hôpital d'Aurora, Helsinki[3]
-Hôpital d'Haartman, Helsinki[3]
+Hôpital d'Aurora, Helsinki
+Hôpital d'Haartman, Helsinki
 Hôpital de dermatologie et d'allergologie (fi) (HYKS)
 Hôpital chirurgical (HYKS)
-Hôpital de Malmi, Helsinki[3]
+Hôpital de Malmi, Helsinki
 Clinique de gynécologie (HYKS)
 Hôpital d'Orton, Helsinki
 Hôpital du parc (HYKS)
 Hôpital des yeux et des oreilles (HYKS)
 Siltasairaala (HYKS)
-Hôpital de Suursuo (fi), Helsinki[3]
+Hôpital de Suursuo (fi), Helsinki
 Clinique d'oncologie (HYKS)
 Hôpital de Töölö (HYKS)
 Siltasairaala (HYKS)
 Nouvel hôpital pour enfants (HYKS)
-Hôpital d'Espoo, Espoo[3]
-Hôpital de Jorvi, Espoo (HYKS)[3]
+Hôpital d'Espoo, Espoo
+Hôpital de Jorvi, Espoo (HYKS)
 Hôpital de Katriina, Vantaa
-Kiljavan sairaala, Nurmijärvi[3]
-Kellokosken sairaala, Tuusula[3]
-Hôpital de Lohja (fi), Lohja[3]
-Raaseporin sairaala, Tammisaari, Raasepori[3]
-Peijaksen sairaala, Vantaa (HYKS)[3]
-Hôpital de Porvoo, Porvoo[3]
-Hôpital d'Hyvinkää, Hyvinkää[3]
+Kiljavan sairaala, Nurmijärvi
+Kellokosken sairaala, Tuusula
+Hôpital de Lohja (fi), Lohja
+Raaseporin sairaala, Tammisaari, Raasepori
+Peijaksen sairaala, Vantaa (HYKS)
+Hôpital de Porvoo, Porvoo
+Hôpital d'Hyvinkää, Hyvinkää
 District hospitalier de Kanta-Häme
 Forssan sairaala, Forssa
 Riihimäen sairaala, Riihimäki (KHKS)
@@ -651,14 +669,14 @@
 District hospitalier d'Ostrobotnie du Nord
 Hôpital de Kontinkangas, Oulu
 Lastenklinikka, Oulu (OYS)
-Oulaskankaan sairaala, Oulainen[4]
+Oulaskankaan sairaala, Oulainen
 Psykiatrian klinikka, Oulu (OYS)
 Visalan sairaala, Ylivieska
 Raahen aluesairaala, Raahe
 District hospitalier de Savonie du Nord
 Julkulan sairaala, Kuopio (KYS)
 Alavan sairaala, Kuopio (KYS)
-Harjulan sairaala, Kuopio[5]
+Harjulan sairaala, Kuopio
 Iisalmen sairaala, Iisalmi
 Varkauden sairaala, Varkaus
 District hospitalier de Päijät-Häme
@@ -692,7 +710,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Liste_des_h%C3%B4pitaux_en_Finlande</t>
+          <t>Liste_des_hôpitaux_en_Finlande</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -710,7 +728,9 @@
           <t>Hôpitaux de l'Institut national de la santé et du bien-être</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Hôpital de Niuvanniemi, Kuopio
 Hôpital psychiatrique pénitentiaire, Turku et Vantaa
@@ -725,7 +745,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Liste_des_h%C3%B4pitaux_en_Finlande</t>
+          <t>Liste_des_hôpitaux_en_Finlande</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -743,7 +763,9 @@
           <t>Hôpitaux privés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Hôpital d'Eira, Helsinki
 Docrates Syöpäsairaala, Helsinki
@@ -759,7 +781,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Liste_des_h%C3%B4pitaux_en_Finlande</t>
+          <t>Liste_des_hôpitaux_en_Finlande</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -778,6 +800,8 @@
         </is>
       </c>
       <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
